--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Nts-Sort1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Nts-Sort1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Nts</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.71487307980245</v>
+        <v>1.747141666666667</v>
       </c>
       <c r="H2">
-        <v>1.71487307980245</v>
+        <v>5.241425</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9598684458717283</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9598684458717284</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.692386891585558</v>
+        <v>0.72097</v>
       </c>
       <c r="N2">
-        <v>0.692386891585558</v>
+        <v>2.16291</v>
       </c>
       <c r="O2">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712134</v>
       </c>
       <c r="P2">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712135</v>
       </c>
       <c r="Q2">
-        <v>1.187355641188171</v>
+        <v>1.259636727416667</v>
       </c>
       <c r="R2">
-        <v>1.187355641188171</v>
+        <v>11.33673054675</v>
       </c>
       <c r="S2">
-        <v>0.03236420459400174</v>
+        <v>0.03185124843447171</v>
       </c>
       <c r="T2">
-        <v>0.03236420459400174</v>
+        <v>0.03185124843447172</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.71487307980245</v>
+        <v>1.747141666666667</v>
       </c>
       <c r="H3">
-        <v>1.71487307980245</v>
+        <v>5.241425</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9598684458717283</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9598684458717284</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.83638860743015</v>
+        <v>1.851391</v>
       </c>
       <c r="N3">
-        <v>1.83638860743015</v>
+        <v>5.554173</v>
       </c>
       <c r="O3">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479757</v>
       </c>
       <c r="P3">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479759</v>
       </c>
       <c r="Q3">
-        <v>3.149173386937874</v>
+        <v>3.234642357391666</v>
       </c>
       <c r="R3">
-        <v>3.149173386937874</v>
+        <v>29.111781216525</v>
       </c>
       <c r="S3">
-        <v>0.08583821751573294</v>
+        <v>0.081791357047235</v>
       </c>
       <c r="T3">
-        <v>0.08583821751573294</v>
+        <v>0.08179135704723503</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.71487307980245</v>
+        <v>1.747141666666667</v>
       </c>
       <c r="H4">
-        <v>1.71487307980245</v>
+        <v>5.241425</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9598684458717283</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9598684458717284</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.80372812630416</v>
+        <v>8.824443666666665</v>
       </c>
       <c r="N4">
-        <v>8.80372812630416</v>
+        <v>26.473331</v>
       </c>
       <c r="O4">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191571</v>
       </c>
       <c r="P4">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191572</v>
       </c>
       <c r="Q4">
-        <v>15.09727636569867</v>
+        <v>15.41755321518611</v>
       </c>
       <c r="R4">
-        <v>15.09727636569867</v>
+        <v>138.757978936675</v>
       </c>
       <c r="S4">
-        <v>0.4115122076000008</v>
+        <v>0.3898491581106016</v>
       </c>
       <c r="T4">
-        <v>0.4115122076000008</v>
+        <v>0.3898491581106018</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.71487307980245</v>
+        <v>1.747141666666667</v>
       </c>
       <c r="H5">
-        <v>1.71487307980245</v>
+        <v>5.241425</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.9598684458717283</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.9598684458717284</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.409447860257229</v>
+        <v>8.620174666666665</v>
       </c>
       <c r="N5">
-        <v>8.409447860257229</v>
+        <v>25.860524</v>
       </c>
       <c r="O5">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429597</v>
       </c>
       <c r="P5">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429598</v>
       </c>
       <c r="Q5">
-        <v>14.42113575155744</v>
+        <v>15.06066633407777</v>
       </c>
       <c r="R5">
-        <v>14.42113575155744</v>
+        <v>135.5459970067</v>
       </c>
       <c r="S5">
-        <v>0.3930823855557118</v>
+        <v>0.3808248954277423</v>
       </c>
       <c r="T5">
-        <v>0.3930823855557118</v>
+        <v>0.3808248954277424</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,371 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.747141666666667</v>
+      </c>
+      <c r="H6">
+        <v>5.241425</v>
+      </c>
+      <c r="I6">
+        <v>0.9598684458717283</v>
+      </c>
+      <c r="J6">
+        <v>0.9598684458717284</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.710155</v>
+      </c>
+      <c r="N6">
+        <v>5.130465</v>
+      </c>
+      <c r="O6">
+        <v>0.07871056411596419</v>
+      </c>
+      <c r="P6">
+        <v>0.07871056411596419</v>
+      </c>
+      <c r="Q6">
+        <v>2.987883056958333</v>
+      </c>
+      <c r="R6">
+        <v>26.890947512625</v>
+      </c>
+      <c r="S6">
+        <v>0.07555178685167757</v>
+      </c>
+      <c r="T6">
+        <v>0.07555178685167759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.073047</v>
+      </c>
+      <c r="H7">
+        <v>0.219141</v>
+      </c>
+      <c r="I7">
+        <v>0.04013155412827168</v>
+      </c>
+      <c r="J7">
+        <v>0.04013155412827169</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.72097</v>
+      </c>
+      <c r="N7">
+        <v>2.16291</v>
+      </c>
+      <c r="O7">
+        <v>0.03318293102712134</v>
+      </c>
+      <c r="P7">
+        <v>0.03318293102712135</v>
+      </c>
+      <c r="Q7">
+        <v>0.05266469559</v>
+      </c>
+      <c r="R7">
+        <v>0.47398226031</v>
+      </c>
+      <c r="S7">
+        <v>0.001331682592649626</v>
+      </c>
+      <c r="T7">
+        <v>0.001331682592649626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.073047</v>
+      </c>
+      <c r="H8">
+        <v>0.219141</v>
+      </c>
+      <c r="I8">
+        <v>0.04013155412827168</v>
+      </c>
+      <c r="J8">
+        <v>0.04013155412827169</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.851391</v>
+      </c>
+      <c r="N8">
+        <v>5.554173</v>
+      </c>
+      <c r="O8">
+        <v>0.08521100719479757</v>
+      </c>
+      <c r="P8">
+        <v>0.08521100719479759</v>
+      </c>
+      <c r="Q8">
+        <v>0.135238558377</v>
+      </c>
+      <c r="R8">
+        <v>1.217147025393</v>
+      </c>
+      <c r="S8">
+        <v>0.003419650147562567</v>
+      </c>
+      <c r="T8">
+        <v>0.003419650147562568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.073047</v>
+      </c>
+      <c r="H9">
+        <v>0.219141</v>
+      </c>
+      <c r="I9">
+        <v>0.04013155412827168</v>
+      </c>
+      <c r="J9">
+        <v>0.04013155412827169</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.824443666666665</v>
+      </c>
+      <c r="N9">
+        <v>26.473331</v>
+      </c>
+      <c r="O9">
+        <v>0.4061485298191571</v>
+      </c>
+      <c r="P9">
+        <v>0.4061485298191572</v>
+      </c>
+      <c r="Q9">
+        <v>0.6445991365189999</v>
+      </c>
+      <c r="R9">
+        <v>5.801392228670999</v>
+      </c>
+      <c r="S9">
+        <v>0.01629937170855547</v>
+      </c>
+      <c r="T9">
+        <v>0.01629937170855548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.71487307980245</v>
-      </c>
-      <c r="H6">
-        <v>1.71487307980245</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.65164987961395</v>
-      </c>
-      <c r="N6">
-        <v>1.65164987961395</v>
-      </c>
-      <c r="O6">
-        <v>0.0772029847345527</v>
-      </c>
-      <c r="P6">
-        <v>0.0772029847345527</v>
-      </c>
-      <c r="Q6">
-        <v>2.832369915808921</v>
-      </c>
-      <c r="R6">
-        <v>2.832369915808921</v>
-      </c>
-      <c r="S6">
-        <v>0.0772029847345527</v>
-      </c>
-      <c r="T6">
-        <v>0.0772029847345527</v>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.073047</v>
+      </c>
+      <c r="H10">
+        <v>0.219141</v>
+      </c>
+      <c r="I10">
+        <v>0.04013155412827168</v>
+      </c>
+      <c r="J10">
+        <v>0.04013155412827169</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>8.620174666666665</v>
+      </c>
+      <c r="N10">
+        <v>25.860524</v>
+      </c>
+      <c r="O10">
+        <v>0.3967469678429597</v>
+      </c>
+      <c r="P10">
+        <v>0.3967469678429598</v>
+      </c>
+      <c r="Q10">
+        <v>0.6296778988759999</v>
+      </c>
+      <c r="R10">
+        <v>5.667101089884</v>
+      </c>
+      <c r="S10">
+        <v>0.0159220724152174</v>
+      </c>
+      <c r="T10">
+        <v>0.01592207241521741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.073047</v>
+      </c>
+      <c r="H11">
+        <v>0.219141</v>
+      </c>
+      <c r="I11">
+        <v>0.04013155412827168</v>
+      </c>
+      <c r="J11">
+        <v>0.04013155412827169</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.710155</v>
+      </c>
+      <c r="N11">
+        <v>5.130465</v>
+      </c>
+      <c r="O11">
+        <v>0.07871056411596419</v>
+      </c>
+      <c r="P11">
+        <v>0.07871056411596419</v>
+      </c>
+      <c r="Q11">
+        <v>0.124921692285</v>
+      </c>
+      <c r="R11">
+        <v>1.124295230565</v>
+      </c>
+      <c r="S11">
+        <v>0.003158777264286616</v>
+      </c>
+      <c r="T11">
+        <v>0.003158777264286617</v>
       </c>
     </row>
   </sheetData>
